--- a/Hardware/Datalogger2039_MCU_Pinout.xlsx
+++ b/Hardware/Datalogger2039_MCU_Pinout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800" tabRatio="500"/>
+    <workbookView windowWidth="19485" windowHeight="7800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="268">
   <si>
     <t>STM32F407VGT6</t>
   </si>
@@ -34,7 +34,7 @@
     <t>PC0</t>
   </si>
   <si>
-    <t>CHARGER_STATE (I)</t>
+    <t>CHARGER_STATE (I, PU)</t>
   </si>
   <si>
     <t>PD0</t>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>ETH_PWR</t>
+  </si>
+  <si>
+    <t>(PU)</t>
+  </si>
+  <si>
+    <t>PULL-UP</t>
   </si>
   <si>
     <t>PA7</t>
@@ -819,10 +825,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_ ;_-&quot;$&quot;* \-#,##0.00\ ;_-&quot;$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="176" formatCode="_-_$* #,##0.00_ ;_-_$* \-#,##0.00\ ;_-_$* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_ ;_-&quot;$&quot;* \-#,##0\ ;_-&quot;$&quot;* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="178" formatCode="_-_$* #,##0_ ;_-_$* \-#,##0\ ;_-_$* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="_-_$* #,##0.00_ ;_-_$* \-#,##0.00\ ;_-_$* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0.00_ ;_-&quot;$&quot;* \-#,##0.00\ ;_-&quot;$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="179" formatCode="_-_$* #,##0_ ;_-_$* \-#,##0\ ;_-_$* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -869,60 +875,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,7 +896,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,47 +910,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1011,10 +943,84 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1087,7 +1093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1111,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,145 +1249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,7 +1267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,17 +1380,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,20 +1428,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,41 +1454,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1476,145 +1482,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2032,7 +2038,7 @@
   <dimension ref="A1:AC90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N1:Q23"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2042,7 +2048,7 @@
     <col min="3" max="3" width="5.71428571428571" customWidth="1"/>
     <col min="4" max="4" width="13.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="5.71428571428571" customWidth="1"/>
-    <col min="6" max="6" width="19.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="22.5714285714286" customWidth="1"/>
     <col min="7" max="7" width="5.85714285714286" customWidth="1"/>
     <col min="8" max="8" width="16.8571428571429" customWidth="1"/>
     <col min="9" max="9" width="5.57142857142857" customWidth="1"/>
@@ -2077,15 +2083,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="11"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
       <c r="R1" s="11"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
       <c r="Y1" s="11"/>
@@ -2132,15 +2130,7 @@
         <v>12</v>
       </c>
       <c r="M2" s="11"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
       <c r="R2" s="11"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
@@ -2187,15 +2177,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="11"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
       <c r="R3" s="11"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
@@ -2236,15 +2218,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="11"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
       <c r="R4" s="11"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
@@ -2285,15 +2259,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="11"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
       <c r="R5" s="11"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
@@ -2336,15 +2302,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="11"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
       <c r="R6" s="11"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -2383,15 +2341,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="11"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
       <c r="R7" s="11"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -2431,18 +2381,14 @@
       <c r="J8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="M8" s="11"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
       <c r="R8" s="11"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
@@ -2453,51 +2399,43 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M9" s="11"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
       <c r="R9" s="11"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
@@ -2508,51 +2446,43 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M10" s="11"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
       <c r="R10" s="11"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
@@ -2563,47 +2493,39 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
       <c r="R11" s="11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
@@ -2614,47 +2536,39 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="11"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
       <c r="R12" s="11"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
@@ -2665,49 +2579,41 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="11"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
       <c r="R13" s="11"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
@@ -2718,49 +2624,41 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="11"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
       <c r="R14" s="11"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
@@ -2771,47 +2669,39 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="11"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
       <c r="R15" s="11"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
@@ -2822,43 +2712,35 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="11"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
       <c r="R16" s="11"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
@@ -2869,45 +2751,37 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="11"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
       <c r="R17" s="11"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
@@ -2930,15 +2804,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
       <c r="R18" s="11"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
@@ -2961,15 +2827,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
       <c r="R19" s="11"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
@@ -2980,33 +2838,25 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="11"/>
       <c r="F20" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="11"/>
       <c r="K20" s="27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L20" s="27"/>
       <c r="M20" s="11"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
       <c r="R20" s="11"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
@@ -3017,18 +2867,18 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
       <c r="F21" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="11"/>
@@ -3036,18 +2886,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M21" s="11"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
       <c r="R21" s="11"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
@@ -3058,11 +2900,11 @@
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11"/>
@@ -3075,18 +2917,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M22" s="11"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
       <c r="R22" s="11"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
@@ -3097,7 +2931,7 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15">
@@ -3115,15 +2949,7 @@
       </c>
       <c r="L23" s="29"/>
       <c r="M23" s="11"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
       <c r="R23" s="11"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
@@ -3134,14 +2960,14 @@
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="11"/>
       <c r="F24" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3157,10 +2983,6 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -3176,11 +2998,11 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="11"/>
@@ -3194,10 +3016,6 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
@@ -3213,7 +3031,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
@@ -3229,10 +3047,6 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
@@ -3243,7 +3057,7 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3264,10 +3078,6 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
@@ -3278,11 +3088,11 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="11"/>
@@ -3301,10 +3111,6 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
@@ -3315,14 +3121,14 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11"/>
       <c r="F29" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3338,10 +3144,6 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
@@ -3352,7 +3154,7 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="12">
@@ -3361,7 +3163,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="11"/>
       <c r="F30" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -3377,10 +3179,6 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
@@ -3391,7 +3189,7 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="12">
@@ -3400,11 +3198,11 @@
       <c r="D31" s="12"/>
       <c r="E31" s="11"/>
       <c r="F31" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="11"/>
@@ -3418,10 +3216,6 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
@@ -3432,18 +3226,18 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="11"/>
       <c r="F32" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="11"/>
@@ -3455,10 +3249,6 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
@@ -3469,16 +3259,16 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="11"/>
       <c r="F33" s="24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
@@ -3492,10 +3282,6 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
@@ -3506,7 +3292,7 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="12">
@@ -3515,14 +3301,14 @@
       <c r="D34" s="12"/>
       <c r="E34" s="11"/>
       <c r="F34" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="11"/>
       <c r="K34" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L34" s="27"/>
       <c r="M34" s="11"/>
@@ -3531,10 +3317,6 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -3550,7 +3332,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="12">
@@ -3562,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -3589,7 +3371,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="12">
@@ -3601,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -3623,14 +3405,14 @@
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="11"/>
       <c r="F37" s="13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="12">
@@ -3642,7 +3424,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -3664,14 +3446,14 @@
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="11"/>
       <c r="F38" s="13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="12">
@@ -3683,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="L38" s="29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -3705,16 +3487,16 @@
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="11"/>
       <c r="F39" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="12">
@@ -3744,14 +3526,14 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
       <c r="E40" s="11"/>
       <c r="F40" s="13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="12">
@@ -3781,7 +3563,7 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -3793,7 +3575,7 @@
       <c r="I41" s="12"/>
       <c r="J41" s="11"/>
       <c r="K41" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="11"/>
@@ -3816,7 +3598,7 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="12">
@@ -3825,14 +3607,14 @@
       <c r="D42" s="12"/>
       <c r="E42" s="11"/>
       <c r="F42" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="11"/>
       <c r="K42" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L42" s="12"/>
       <c r="M42" s="11"/>
@@ -3855,7 +3637,7 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="12">
@@ -3864,16 +3646,16 @@
       <c r="D43" s="12"/>
       <c r="E43" s="11"/>
       <c r="F43" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="11"/>
       <c r="K43" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L43" s="8">
         <v>32</v>
@@ -3903,16 +3685,16 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="11"/>
       <c r="K44" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L44" s="8">
         <v>2047</v>
@@ -3968,7 +3750,7 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4001,23 +3783,23 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="11"/>
       <c r="F47" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="11"/>
       <c r="K47" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="11"/>
@@ -4045,19 +3827,19 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="11"/>
       <c r="K48" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -4084,19 +3866,19 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="11"/>
       <c r="K49" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
@@ -4118,26 +3900,26 @@
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="11"/>
       <c r="F50" s="13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="11"/>
       <c r="K50" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4159,18 +3941,18 @@
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="11"/>
       <c r="F51" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="11"/>
@@ -4196,20 +3978,20 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="11"/>
       <c r="F52" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="11"/>
@@ -4240,16 +4022,16 @@
       <c r="D53" s="18"/>
       <c r="E53" s="11"/>
       <c r="F53" s="13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="11"/>
       <c r="K53" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="11"/>
@@ -4277,16 +4059,16 @@
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="11"/>
       <c r="K54" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L54" s="12"/>
       <c r="M54" s="11"/>
@@ -4309,18 +4091,18 @@
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="11"/>
       <c r="F55" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="11"/>
@@ -4346,18 +4128,18 @@
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="11"/>
       <c r="F56" s="13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="11"/>
@@ -4383,25 +4165,25 @@
     </row>
     <row r="57" spans="1:29">
       <c r="A57" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="11"/>
       <c r="F57" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="11"/>
       <c r="K57" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="11"/>
@@ -4429,19 +4211,19 @@
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="11"/>
       <c r="K58" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -4468,19 +4250,19 @@
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="11"/>
       <c r="K59" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
@@ -4502,18 +4284,18 @@
     </row>
     <row r="60" spans="1:29">
       <c r="A60" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="11"/>
       <c r="F60" s="13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="11"/>
@@ -4539,16 +4321,16 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="11"/>
       <c r="F61" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="12">
@@ -4583,11 +4365,11 @@
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="11"/>
@@ -4618,11 +4400,11 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="11"/>
@@ -4648,18 +4430,18 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="11"/>
       <c r="F64" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="11"/>
@@ -4685,16 +4467,16 @@
     </row>
     <row r="65" spans="1:29">
       <c r="A65" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="11"/>
       <c r="F65" s="13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="12">
@@ -4729,11 +4511,11 @@
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="13" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="11"/>
@@ -4764,7 +4546,7 @@
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="12">
@@ -4794,14 +4576,14 @@
     </row>
     <row r="68" spans="1:29">
       <c r="A68" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="11"/>
       <c r="F68" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G68" s="13"/>
       <c r="H68" s="12">
@@ -4831,20 +4613,20 @@
     </row>
     <row r="69" spans="1:29">
       <c r="A69" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="11"/>
       <c r="F69" s="13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="11"/>
@@ -4870,18 +4652,18 @@
     </row>
     <row r="70" spans="1:29">
       <c r="A70" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="11"/>
       <c r="F70" s="13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G70" s="13"/>
       <c r="H70" s="12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="11"/>
@@ -4907,11 +4689,11 @@
     </row>
     <row r="71" spans="1:29">
       <c r="A71" s="13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="11"/>
@@ -4942,7 +4724,7 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="12">

--- a/Hardware/Datalogger2039_MCU_Pinout.xlsx
+++ b/Hardware/Datalogger2039_MCU_Pinout.xlsx
@@ -825,10 +825,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-_$* #,##0.00_ ;_-_$* \-#,##0.00\ ;_-_$* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_ ;_-&quot;$&quot;* \-#,##0\ ;_-&quot;$&quot;* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0.00_ ;_-&quot;$&quot;* \-#,##0.00\ ;_-&quot;$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="_-_$* #,##0_ ;_-_$* \-#,##0\ ;_-_$* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="176" formatCode="_-_$* #,##0_ ;_-_$* \-#,##0\ ;_-_$* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_ ;_-&quot;$&quot;* \-#,##0.00\ ;_-&quot;$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0_ ;_-&quot;$&quot;* \-#,##0\ ;_-&quot;$&quot;* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="179" formatCode="_-_$* #,##0.00_ ;_-_$* \-#,##0.00\ ;_-_$* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -881,15 +881,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,24 +896,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -927,7 +927,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -943,8 +943,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,14 +989,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,29 +1011,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,7 +1093,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,49 +1243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,43 +1255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,73 +1273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,20 +1380,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,6 +1425,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1439,6 +1445,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1462,162 +1477,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2037,8 +2037,8 @@
   <sheetPr/>
   <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3658,7 +3658,7 @@
         <v>206</v>
       </c>
       <c r="L43" s="8">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -3697,7 +3697,7 @@
         <v>208</v>
       </c>
       <c r="L44" s="8">
-        <v>2047</v>
+        <v>4095</v>
       </c>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
